--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Atlantic Yellow-nosed Albatross_Gough.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Atlantic Yellow-nosed Albatross_Gough.xlsx
@@ -4139,13 +4139,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D712210-9DBA-4B32-BD9C-804312F2AA4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{095CCB2F-9676-4601-9CB5-423A39949BB3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF35B279-C79B-4593-A7C5-EC56872D517C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A30D7A6-7AB9-4011-8A79-18B41784805E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239FA611-8558-48A6-AAF6-A3824AE46929}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F858B2F-768D-4613-B2BA-D3C1459DDC93}"/>
 </file>